--- a/OpenPy_fx_tools_dss/IMEX_to_DSS/xlsx_DSS_xlsx/Examples/13NodeIEEE/xlsx_files/BBDD_DSS_13nodeIEEE.xlsx
+++ b/OpenPy_fx_tools_dss/IMEX_to_DSS/xlsx_DSS_xlsx/Examples/13NodeIEEE/xlsx_files/BBDD_DSS_13nodeIEEE.xlsx
@@ -2996,247 +2996,247 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>XfmrCode</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>buses</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>conns</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>kVs</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>kVAs</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>taps</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>%Rs</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>MaxTap</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>MinTap</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>NumTaps</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>normamps</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>emergamps</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>normhkVA</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>emerghkVA</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>wdg</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>bus</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>conn</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>kV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>kVA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>tap</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>%R</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Rneut</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Xneut</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>buses</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>conns</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>kVs</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>kVAs</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>taps</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>RdcOhms</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>XHL</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>XHT</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>XLT</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>X12</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>X13</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>X23</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>%loadloss</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>%noloadloss</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>Xscarray</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>thermal</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>n</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>m</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>flrise</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>hsrise</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>%loadloss</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>%noloadloss</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>normhkVA</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>emerghkVA</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>sub</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>MaxTap</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>MinTap</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>NumTaps</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>subname</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>%imag</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>ppm_antifloat</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>%Rs</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>bank</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>XfmrCode</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>XRConst</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>X12</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>X13</t>
-        </is>
-      </c>
-      <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>X23</t>
-        </is>
-      </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>LeadLag</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>WdgCurrents</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>Core</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
-        <is>
-          <t>RdcOhms</t>
-        </is>
-      </c>
-      <c r="AW1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>Seasons</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>Ratings</t>
-        </is>
-      </c>
-      <c r="AY1" s="1" t="inlineStr">
-        <is>
-          <t>normamps</t>
-        </is>
-      </c>
-      <c r="AZ1" s="1" t="inlineStr">
-        <is>
-          <t>emergamps</t>
         </is>
       </c>
       <c r="BA1" s="1" t="inlineStr">
@@ -3282,164 +3282,102 @@
       <c r="C2" t="n">
         <v>2</v>
       </c>
-      <c r="D2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E2" t="n">
-        <v>650</v>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>[sourcebus,  650.1.2.3.0]</t>
+        </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>wye</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="H2" t="n">
-        <v>5000</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.0005</v>
+          <t>[delta, wye]</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>[115.0, 4.16]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[5000.0, 5000.0]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>[1.0, 1.0]</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>[0.0005, 0.0005]</t>
+        </is>
       </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>[sourcebus, 650.0]</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>[delta, wye]</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>[115.0, 4.16]</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>[5000.0, 5000.0]</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>[1.0, 1.0]</t>
-        </is>
-      </c>
-      <c r="R2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
+        <v>27.6124041786343</v>
+      </c>
+      <c r="O2" t="n">
+        <v>37.6532784254104</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5500</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>7500</v>
+      </c>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="n">
+        <v>4.90325333333333e-06</v>
+      </c>
+      <c r="AB2" t="n">
         <v>0.008</v>
       </c>
-      <c r="S2" t="n">
-        <v>4</v>
-      </c>
-      <c r="T2" t="n">
-        <v>4</v>
-      </c>
-      <c r="U2" t="inlineStr">
+      <c r="AC2" t="inlineStr"/>
+      <c r="AD2" t="inlineStr"/>
+      <c r="AE2" t="inlineStr"/>
+      <c r="AF2" t="inlineStr"/>
+      <c r="AG2" t="inlineStr"/>
+      <c r="AH2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AI2" t="inlineStr"/>
+      <c r="AJ2" t="inlineStr">
         <is>
           <t>[0.008]</t>
         </is>
       </c>
-      <c r="V2" t="n">
-        <v>2</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>65</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="AB2" t="inlineStr"/>
-      <c r="AC2" t="n">
-        <v>5500</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>7500</v>
-      </c>
-      <c r="AE2" t="inlineStr"/>
-      <c r="AF2" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>32</v>
-      </c>
-      <c r="AI2" t="inlineStr"/>
-      <c r="AJ2" t="inlineStr"/>
-      <c r="AK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>[0.0005, 0.0005]</t>
-        </is>
-      </c>
+      <c r="AK2" t="inlineStr"/>
+      <c r="AL2" t="inlineStr"/>
       <c r="AM2" t="inlineStr"/>
       <c r="AN2" t="inlineStr"/>
       <c r="AO2" t="inlineStr"/>
-      <c r="AP2" t="n">
-        <v>0.008</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>4</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>4</v>
-      </c>
-      <c r="AS2" t="inlineStr">
-        <is>
-          <t>Lag</t>
-        </is>
-      </c>
+      <c r="AP2" t="inlineStr"/>
+      <c r="AQ2" t="inlineStr"/>
+      <c r="AR2" t="inlineStr"/>
+      <c r="AS2" t="inlineStr"/>
       <c r="AT2" t="inlineStr"/>
       <c r="AU2" t="inlineStr"/>
-      <c r="AV2" t="n">
-        <v>4.90325333333333e-06</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX2" t="inlineStr">
-        <is>
-          <t>[1100.0]</t>
-        </is>
-      </c>
-      <c r="AY2" t="n">
-        <v>27.6124041786343</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>37.6532784254104</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>0.007</v>
-      </c>
+      <c r="AV2" t="inlineStr"/>
+      <c r="AW2" t="inlineStr"/>
+      <c r="AX2" t="inlineStr"/>
+      <c r="AY2" t="inlineStr"/>
+      <c r="AZ2" t="inlineStr"/>
+      <c r="BA2" t="inlineStr"/>
       <c r="BB2" t="inlineStr"/>
       <c r="BC2" t="inlineStr"/>
-      <c r="BD2" t="n">
-        <v>60</v>
-      </c>
-      <c r="BE2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+      <c r="BD2" t="inlineStr"/>
+      <c r="BE2" t="inlineStr"/>
       <c r="BF2" t="inlineStr"/>
     </row>
     <row r="3">
@@ -3454,166 +3392,102 @@
       <c r="C3" t="n">
         <v>2</v>
       </c>
-      <c r="D3" t="n">
-        <v>2</v>
-      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>rg60.1</t>
+          <t>[650.1,  rg60.1]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>wye</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1666</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1.05625</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.005</v>
+          <t>[wye, wye]</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>[2.4, 2.4]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[1666.0, 1666.0]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>[1.0, 1.05625]</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>[0.005, 0.005]</t>
+        </is>
       </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>[650.1, rg60.1]</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>[wye, wye]</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>[2.4, 2.4]</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>[1666.0, 1666.0]</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>[1.0, 1.05625]</t>
-        </is>
-      </c>
-      <c r="R3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
+        <v>763.583333333333</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1041.25</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1832.6</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2499</v>
+      </c>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="n">
+        <v>0.000146938775510204</v>
+      </c>
+      <c r="AB3" t="n">
         <v>0.01</v>
       </c>
-      <c r="S3" t="n">
-        <v>35</v>
-      </c>
-      <c r="T3" t="n">
-        <v>30</v>
-      </c>
-      <c r="U3" t="inlineStr">
+      <c r="AC3" t="inlineStr"/>
+      <c r="AD3" t="inlineStr"/>
+      <c r="AE3" t="inlineStr"/>
+      <c r="AF3" t="inlineStr"/>
+      <c r="AG3" t="inlineStr"/>
+      <c r="AH3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AI3" t="inlineStr"/>
+      <c r="AJ3" t="inlineStr">
         <is>
           <t>[0.01]</t>
         </is>
       </c>
-      <c r="V3" t="n">
-        <v>2</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>65</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AB3" t="inlineStr"/>
-      <c r="AC3" t="n">
-        <v>1832.6</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>2499</v>
-      </c>
-      <c r="AE3" t="inlineStr"/>
-      <c r="AF3" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>32</v>
-      </c>
-      <c r="AI3" t="inlineStr"/>
-      <c r="AJ3" t="inlineStr"/>
-      <c r="AK3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL3" t="inlineStr">
-        <is>
-          <t>[0.005, 0.005]</t>
-        </is>
-      </c>
+      <c r="AK3" t="inlineStr"/>
+      <c r="AL3" t="inlineStr"/>
       <c r="AM3" t="inlineStr"/>
       <c r="AN3" t="inlineStr"/>
       <c r="AO3" t="inlineStr"/>
-      <c r="AP3" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>35</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>30</v>
-      </c>
-      <c r="AS3" t="inlineStr">
-        <is>
-          <t>Lag</t>
-        </is>
-      </c>
+      <c r="AP3" t="inlineStr"/>
+      <c r="AQ3" t="inlineStr"/>
+      <c r="AR3" t="inlineStr"/>
+      <c r="AS3" t="inlineStr"/>
       <c r="AT3" t="inlineStr"/>
       <c r="AU3" t="inlineStr"/>
-      <c r="AV3" t="n">
-        <v>0.000146938775510204</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX3" t="inlineStr">
-        <is>
-          <t>[1100.0]</t>
-        </is>
-      </c>
-      <c r="AY3" t="n">
-        <v>763.583333333333</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>1041.25</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>0.007</v>
-      </c>
+      <c r="AV3" t="inlineStr"/>
+      <c r="AW3" t="inlineStr"/>
+      <c r="AX3" t="inlineStr"/>
+      <c r="AY3" t="inlineStr"/>
+      <c r="AZ3" t="inlineStr"/>
+      <c r="BA3" t="inlineStr"/>
       <c r="BB3" t="inlineStr"/>
       <c r="BC3" t="inlineStr"/>
-      <c r="BD3" t="n">
-        <v>60</v>
-      </c>
-      <c r="BE3" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+      <c r="BD3" t="inlineStr"/>
+      <c r="BE3" t="inlineStr"/>
       <c r="BF3" t="inlineStr"/>
     </row>
     <row r="4">
@@ -3628,166 +3502,102 @@
       <c r="C4" t="n">
         <v>2</v>
       </c>
-      <c r="D4" t="n">
-        <v>2</v>
-      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>rg60.2</t>
+          <t>[650.2,  rg60.2]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>wye</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1666</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1.0375</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.005</v>
+          <t>[wye, wye]</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>[2.4, 2.4]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[1666.0, 1666.0]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>[1.0, 1.0375]</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>[0.005, 0.005]</t>
+        </is>
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>[650.2, rg60.2]</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>[wye, wye]</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>[2.4, 2.4]</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>[1666.0, 1666.0]</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>[1.0, 1.0375]</t>
-        </is>
-      </c>
-      <c r="R4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
+        <v>763.583333333333</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1041.25</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1832.6</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2499</v>
+      </c>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="n">
+        <v>0.000146938775510204</v>
+      </c>
+      <c r="AB4" t="n">
         <v>0.01</v>
       </c>
-      <c r="S4" t="n">
-        <v>35</v>
-      </c>
-      <c r="T4" t="n">
-        <v>30</v>
-      </c>
-      <c r="U4" t="inlineStr">
+      <c r="AC4" t="inlineStr"/>
+      <c r="AD4" t="inlineStr"/>
+      <c r="AE4" t="inlineStr"/>
+      <c r="AF4" t="inlineStr"/>
+      <c r="AG4" t="inlineStr"/>
+      <c r="AH4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AI4" t="inlineStr"/>
+      <c r="AJ4" t="inlineStr">
         <is>
           <t>[0.01]</t>
         </is>
       </c>
-      <c r="V4" t="n">
-        <v>2</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>65</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AB4" t="inlineStr"/>
-      <c r="AC4" t="n">
-        <v>1832.6</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>2499</v>
-      </c>
-      <c r="AE4" t="inlineStr"/>
-      <c r="AF4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>32</v>
-      </c>
-      <c r="AI4" t="inlineStr"/>
-      <c r="AJ4" t="inlineStr"/>
-      <c r="AK4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL4" t="inlineStr">
-        <is>
-          <t>[0.005, 0.005]</t>
-        </is>
-      </c>
+      <c r="AK4" t="inlineStr"/>
+      <c r="AL4" t="inlineStr"/>
       <c r="AM4" t="inlineStr"/>
       <c r="AN4" t="inlineStr"/>
       <c r="AO4" t="inlineStr"/>
-      <c r="AP4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>35</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>30</v>
-      </c>
-      <c r="AS4" t="inlineStr">
-        <is>
-          <t>Lag</t>
-        </is>
-      </c>
+      <c r="AP4" t="inlineStr"/>
+      <c r="AQ4" t="inlineStr"/>
+      <c r="AR4" t="inlineStr"/>
+      <c r="AS4" t="inlineStr"/>
       <c r="AT4" t="inlineStr"/>
       <c r="AU4" t="inlineStr"/>
-      <c r="AV4" t="n">
-        <v>0.000146938775510204</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX4" t="inlineStr">
-        <is>
-          <t>[1100.0]</t>
-        </is>
-      </c>
-      <c r="AY4" t="n">
-        <v>763.583333333333</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>1041.25</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>0.007</v>
-      </c>
+      <c r="AV4" t="inlineStr"/>
+      <c r="AW4" t="inlineStr"/>
+      <c r="AX4" t="inlineStr"/>
+      <c r="AY4" t="inlineStr"/>
+      <c r="AZ4" t="inlineStr"/>
+      <c r="BA4" t="inlineStr"/>
       <c r="BB4" t="inlineStr"/>
       <c r="BC4" t="inlineStr"/>
-      <c r="BD4" t="n">
-        <v>60</v>
-      </c>
-      <c r="BE4" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+      <c r="BD4" t="inlineStr"/>
+      <c r="BE4" t="inlineStr"/>
       <c r="BF4" t="inlineStr"/>
     </row>
     <row r="5">
@@ -3802,166 +3612,102 @@
       <c r="C5" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
-        <v>2</v>
-      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>rg60.3</t>
+          <t>[650.3,  rg60.3]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>wye</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1666</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1.05625</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.005</v>
+          <t>[wye, wye]</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>[2.4, 2.4]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[1666.0, 1666.0]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>[1.0, 1.05625]</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>[0.005, 0.005]</t>
+        </is>
       </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>[650.3, rg60.3]</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>[wye, wye]</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>[2.4, 2.4]</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>[1666.0, 1666.0]</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>[1.0, 1.05625]</t>
-        </is>
-      </c>
-      <c r="R5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
+        <v>763.583333333333</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1041.25</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1832.6</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2499</v>
+      </c>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="n">
+        <v>0.000146938775510204</v>
+      </c>
+      <c r="AB5" t="n">
         <v>0.01</v>
       </c>
-      <c r="S5" t="n">
-        <v>35</v>
-      </c>
-      <c r="T5" t="n">
-        <v>30</v>
-      </c>
-      <c r="U5" t="inlineStr">
+      <c r="AC5" t="inlineStr"/>
+      <c r="AD5" t="inlineStr"/>
+      <c r="AE5" t="inlineStr"/>
+      <c r="AF5" t="inlineStr"/>
+      <c r="AG5" t="inlineStr"/>
+      <c r="AH5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AI5" t="inlineStr"/>
+      <c r="AJ5" t="inlineStr">
         <is>
           <t>[0.01]</t>
         </is>
       </c>
-      <c r="V5" t="n">
-        <v>2</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>65</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AB5" t="inlineStr"/>
-      <c r="AC5" t="n">
-        <v>1832.6</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>2499</v>
-      </c>
-      <c r="AE5" t="inlineStr"/>
-      <c r="AF5" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>32</v>
-      </c>
-      <c r="AI5" t="inlineStr"/>
-      <c r="AJ5" t="inlineStr"/>
-      <c r="AK5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL5" t="inlineStr">
-        <is>
-          <t>[0.005, 0.005]</t>
-        </is>
-      </c>
+      <c r="AK5" t="inlineStr"/>
+      <c r="AL5" t="inlineStr"/>
       <c r="AM5" t="inlineStr"/>
       <c r="AN5" t="inlineStr"/>
       <c r="AO5" t="inlineStr"/>
-      <c r="AP5" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>35</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>30</v>
-      </c>
-      <c r="AS5" t="inlineStr">
-        <is>
-          <t>Lag</t>
-        </is>
-      </c>
+      <c r="AP5" t="inlineStr"/>
+      <c r="AQ5" t="inlineStr"/>
+      <c r="AR5" t="inlineStr"/>
+      <c r="AS5" t="inlineStr"/>
       <c r="AT5" t="inlineStr"/>
       <c r="AU5" t="inlineStr"/>
-      <c r="AV5" t="n">
-        <v>0.000146938775510204</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX5" t="inlineStr">
-        <is>
-          <t>[1100.0]</t>
-        </is>
-      </c>
-      <c r="AY5" t="n">
-        <v>763.583333333333</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>1041.25</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>0.007</v>
-      </c>
+      <c r="AV5" t="inlineStr"/>
+      <c r="AW5" t="inlineStr"/>
+      <c r="AX5" t="inlineStr"/>
+      <c r="AY5" t="inlineStr"/>
+      <c r="AZ5" t="inlineStr"/>
+      <c r="BA5" t="inlineStr"/>
       <c r="BB5" t="inlineStr"/>
       <c r="BC5" t="inlineStr"/>
-      <c r="BD5" t="n">
-        <v>60</v>
-      </c>
-      <c r="BE5" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+      <c r="BD5" t="inlineStr"/>
+      <c r="BE5" t="inlineStr"/>
       <c r="BF5" t="inlineStr"/>
     </row>
     <row r="6">
@@ -3976,164 +3722,102 @@
       <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="D6" t="n">
-        <v>2</v>
-      </c>
-      <c r="E6" t="n">
-        <v>634</v>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>[633.1.2.3.0,  634.1.2.3.0]</t>
+        </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>wye</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="H6" t="n">
-        <v>500</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.55</v>
+          <t>[wye, wye]</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>[4.16, 0.48]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[500.0, 500.0]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>[1.0, 1.0]</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>[0.55, 0.55]</t>
+        </is>
       </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>[633.0, 634.0]</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>[wye, wye]</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>[4.16, 0.48]</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>[500.0, 500.0]</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>[1.0, 1.0]</t>
-        </is>
-      </c>
-      <c r="R6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
+        <v>76.3323673207438</v>
+      </c>
+      <c r="O6" t="n">
+        <v>104.089591801014</v>
+      </c>
+      <c r="P6" t="n">
+        <v>550</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>750</v>
+      </c>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="n">
+        <v>0.00071808</v>
+      </c>
+      <c r="AB6" t="n">
         <v>2</v>
       </c>
-      <c r="S6" t="n">
-        <v>1</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1</v>
-      </c>
-      <c r="U6" t="inlineStr">
+      <c r="AC6" t="inlineStr"/>
+      <c r="AD6" t="inlineStr"/>
+      <c r="AE6" t="inlineStr"/>
+      <c r="AF6" t="inlineStr"/>
+      <c r="AG6" t="inlineStr"/>
+      <c r="AH6" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AI6" t="inlineStr"/>
+      <c r="AJ6" t="inlineStr">
         <is>
           <t>[2.0]</t>
         </is>
       </c>
-      <c r="V6" t="n">
-        <v>2</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>65</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AB6" t="inlineStr"/>
-      <c r="AC6" t="n">
-        <v>550</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>750</v>
-      </c>
-      <c r="AE6" t="inlineStr"/>
-      <c r="AF6" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>32</v>
-      </c>
-      <c r="AI6" t="inlineStr"/>
-      <c r="AJ6" t="inlineStr"/>
-      <c r="AK6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL6" t="inlineStr">
-        <is>
-          <t>[0.55, 0.55]</t>
-        </is>
-      </c>
+      <c r="AK6" t="inlineStr"/>
+      <c r="AL6" t="inlineStr"/>
       <c r="AM6" t="inlineStr"/>
       <c r="AN6" t="inlineStr"/>
       <c r="AO6" t="inlineStr"/>
-      <c r="AP6" t="n">
-        <v>2</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS6" t="inlineStr">
-        <is>
-          <t>Lag</t>
-        </is>
-      </c>
+      <c r="AP6" t="inlineStr"/>
+      <c r="AQ6" t="inlineStr"/>
+      <c r="AR6" t="inlineStr"/>
+      <c r="AS6" t="inlineStr"/>
       <c r="AT6" t="inlineStr"/>
       <c r="AU6" t="inlineStr"/>
-      <c r="AV6" t="n">
-        <v>0.00071808</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX6" t="inlineStr">
-        <is>
-          <t>[1100.0]</t>
-        </is>
-      </c>
-      <c r="AY6" t="n">
-        <v>76.3323673207438</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>104.089591801014</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>0.007</v>
-      </c>
+      <c r="AV6" t="inlineStr"/>
+      <c r="AW6" t="inlineStr"/>
+      <c r="AX6" t="inlineStr"/>
+      <c r="AY6" t="inlineStr"/>
+      <c r="AZ6" t="inlineStr"/>
+      <c r="BA6" t="inlineStr"/>
       <c r="BB6" t="inlineStr"/>
       <c r="BC6" t="inlineStr"/>
-      <c r="BD6" t="n">
-        <v>60</v>
-      </c>
-      <c r="BE6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+      <c r="BD6" t="inlineStr"/>
+      <c r="BE6" t="inlineStr"/>
       <c r="BF6" t="inlineStr"/>
     </row>
   </sheetData>
@@ -4746,12 +4430,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>675.0</t>
+          <t>675.1.2.3.0</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>675.0.0.0</t>
+          <t>675.1.2.3.0.0.0</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -4772,7 +4456,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>[0 |1.87639338887875E-310 2.25607960651843E-308 |1.02752654315676E-305 0 1.02751510645009E-305]</t>
+          <t>[0 |1.87639338887875E-310 2.25607960651843E-308 |9.77923291197128E-306 0 9.77912309584208E-306]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -6727,12 +6411,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>671.0</t>
+          <t>671.1.2.3.0</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>692.0</t>
+          <t>692.1.2.3.0</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
@@ -7031,11 +6715,7 @@
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>sourcebus.0.0.0</t>
-        </is>
-      </c>
+      <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr"/>
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr"/>

--- a/OpenPy_fx_tools_dss/IMEX_to_DSS/xlsx_DSS_xlsx/Examples/13NodeIEEE/xlsx_files/BBDD_DSS_13nodeIEEE.xlsx
+++ b/OpenPy_fx_tools_dss/IMEX_to_DSS/xlsx_DSS_xlsx/Examples/13NodeIEEE/xlsx_files/BBDD_DSS_13nodeIEEE.xlsx
@@ -4456,7 +4456,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>[0 |1.87639338887875E-310 2.25607960651843E-308 |9.77923291197128E-306 0 9.77912309584208E-306]</t>
+          <t>[0 |1.87639338887875E-310 2.25607960651843E-308 |9.21786364221574E-306 0 9.21786786141778E-306]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
